--- a/Pesquisa geral.xlsx
+++ b/Pesquisa geral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nome</t>
   </si>
@@ -28,25 +28,19 @@
     <t>iphone 12 64gb - azul - estou zerado</t>
   </si>
   <si>
-    <t>iphone 12 64gb - preto - estou zerado</t>
-  </si>
-  <si>
-    <t>iphone 12 preto 64gb</t>
-  </si>
-  <si>
-    <t>iphone 11 apple (64gb) branco, tela de 6,1, 4g e câmera de 12 mp</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.trocafy.com.br/iphone-12-64gb-azul-sou-como-novo-2552/p%3Fidsku%3D966%26srsltid%3DAeTuncob9bDjo85MRsuo3OUioZlgrBbmc-UK75tqz1amBSIi0K1d3MNQ4CM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwimzIGf6q78AhVcrpUCHXzBCbwQguUECI4N&amp;usg=AOvVaw3x_zJDdXWfCiRClrlu8Mt_</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.trocafy.com.br/iphone-12-64gb-preto-sou-como-novo-2551/p%3Fidsku%3D971%26srsltid%3DAeTuncrUNaVHzAzS7dtx0wFLm9NelyUhzkk1uf2kc8Z8jFuCjt8nocIdoY4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwimzIGf6q78AhVcrpUCHXzBCbwQguUECN4P&amp;usg=AOvVaw1z8A_PajdyZaqXnbPtILxp</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://rj.olx.com.br/rio-de-janeiro-e-regiao/celulares/iphone-12-preto-64gb-1119236185&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwimzIGf6q78AhVcrpUCHXzBCbwQgOUECJ4Q&amp;usg=AOvVaw06Hb0_wOvcciBCsguAyRAQ</t>
-  </si>
-  <si>
-    <t>https://www.google.com.br/url?url=https://www.casasbahia.com.br/iphone-11-64gb-branco-b-1509665673/p/1509665673%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1509665673%26idLojista%3D37582%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwimzIGf6q78AhVcrpUCHXzBCbwQguUECPkS&amp;usg=AOvVaw1S8Di2qzughI8v0Rxsg_Kn</t>
+    <t>iphone 12 64 gb branco vitrine 100% apple</t>
+  </si>
+  <si>
+    <t>(seminovo) iphone 12 apple preto, 64gb</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.trocafy.com.br/iphone-12-64gb-azul-sou-como-novo-2552/p%3Fidsku%3D966%26srsltid%3DAfAwrE6NdY6yDatYuC5JKOdsSt82kSu8wsK0nIv6uVIj4qNU45G37GMgYDE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwio0urFt5P-AhV7qZUCHfzcB7AQguUECIAN&amp;usg=AOvVaw1_oHaAHoTmRK8Cp7ERlYpo</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://produto.mercadolivre.com.br/MLB-3367090772-iphone-12-64-gb-branco-vitrine-100-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwio0urFt5P-AhV7qZUCHfzcB7AQgOUECNMN&amp;usg=AOvVaw3-qRnq5cyScQ2qPkWv208g</t>
+  </si>
+  <si>
+    <t>https://www.google.com.br/url?url=https://www.taqi.com.br/seminovo-iphone12-64gbpreto-internacional/220672%3Fsrsltid%3DAfAwrE7E46DP90Vj-PnKW4eeuvcSba9C_-HmtcpBJ5TiYXoYPvs8tbAsvUA&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwio0urFt5P-AhV7qZUCHfzcB7AQgOUECNUQ&amp;usg=AOvVaw1a3DIeldInUcpO08uiphP9</t>
   </si>
 </sst>
 </file>
@@ -417,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3329.1</v>
+        <v>3059.1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -450,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3329.1</v>
+        <v>3299</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -461,21 +455,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>3144.15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>3491.03</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +466,6 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
